--- a/6 лаба и книги к ней Готова/Вероятности.xlsx
+++ b/6 лаба и книги к ней Готова/Вероятности.xlsx
@@ -13,11 +13,51 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Мат ожидание</t>
+  </si>
+  <si>
+    <t>Дисперсия</t>
+  </si>
+  <si>
+    <t>Среденее квадратическое
+ отклонение</t>
+  </si>
+  <si>
+    <t>Вероятность 
+распределения</t>
+  </si>
+  <si>
+    <t>Плотность 
+распределения</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -44,8 +84,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -67,20 +119,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>284368</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38137</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>224546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -93,8 +145,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1"/>
-          <a:ext cx="7000875" cy="3467136"/>
+          <a:off x="9571243" y="34636"/>
+          <a:ext cx="6383132" cy="3618910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -105,20 +157,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>145823</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>75407</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>251068</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -131,8 +183,160 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3810001"/>
-          <a:ext cx="5048250" cy="4837906"/>
+          <a:off x="9432698" y="3590975"/>
+          <a:ext cx="7534745" cy="3648025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>308689</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>48515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>426530</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9595564" y="7478015"/>
+          <a:ext cx="7547341" cy="4118671"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>30307</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>216862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19842307" y="0"/>
+          <a:ext cx="5922817" cy="3360112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>225519</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>77932</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>153121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19621883" y="3692592"/>
+          <a:ext cx="7126049" cy="7648074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>333253</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27934227" y="173182"/>
+          <a:ext cx="14828571" cy="7190476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -431,14 +635,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF24" sqref="AF24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="AC3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="M4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="M16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="AC16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+    </row>
+    <row r="17" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+    </row>
+    <row r="18" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+    </row>
+    <row r="19" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+    </row>
+    <row r="20" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+    </row>
+    <row r="21" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+    </row>
+    <row r="28" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="13:32" x14ac:dyDescent="0.25">
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:H12"/>
+    <mergeCell ref="M4:O10"/>
+    <mergeCell ref="M16:O20"/>
+    <mergeCell ref="M28:O31"/>
+    <mergeCell ref="AC3:AE6"/>
+    <mergeCell ref="AC16:AF21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
